--- a/biology/Histoire de la zoologie et de la botanique/John_Henry_Comstock/John_Henry_Comstock.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Henry_Comstock/John_Henry_Comstock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Henry Comstock est un entomologiste américain, né le 24 février 1849 à Janesville dans le Wisconsin[1] et mort le 20 mars 1931 (à 82 ans) à Ithaca[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Henry Comstock est un entomologiste américain, né le 24 février 1849 à Janesville dans le Wisconsin et mort le 20 mars 1931 (à 82 ans) à Ithaca.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’Ebenezer et de Susan Allen Comstock qui s’installent après leur mariage dans une petite ferme à Janesville dans le Wisconsin. Peu de temps après sa naissance, son père part en Californie lors de la ruée vers l’or et meurt du choléra dans la région de la rivière Platte. Sa mère, qui n’apprend la nouvelle de sa mort que quelques années plus tard, doit abandonner alors l’exploitation familiale et part à New York où elle devient bonne.
 Le jeune Comstock est placé dans un orphelinat vers l’âge de quatre ans puis dans plusieurs familles dont celle d’un oncle. Il est alors adopté à onze ans par un couple à Oswego, le père est capitaine de marine et ses trois fils marins. Comstock commence à travailler à seize ans comme cuisinier à bord des navires naviguant sur les Grands Lacs.
